--- a/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-003.xlsx
+++ b/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/6 シナリオ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoi.yaegashi\Downloads\研修\研修会\IT外部研修\workspace\teamF\総合テスト\6. シナリオテスト（管理者＆ユーザー連携）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246D8603-A59E-457C-84A2-62F3CBFE3361}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B4BC8-178C-4E5B-8E21-43E1C59A902D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="380" windowWidth="10040" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="400" windowWidth="8930" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>管理者側で商品削除</t>
     <rPh sb="0" eb="4">
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>2. 商品詳細ページへの直接アクセスができないこと</t>
+  </si>
+  <si>
+    <t>Products</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -159,23 +163,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553736</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>192988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>335910</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>144171</xdr:rowOff>
+      <xdr:colOff>246370</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>11531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D192B3-0068-AC75-A6CD-CBDAA3024325}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0767C1C5-C09E-41E8-9C4B-CAA8A8E9DCAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -191,8 +195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="11430000"/>
-          <a:ext cx="18166710" cy="9288171"/>
+          <a:off x="1215567" y="11587213"/>
+          <a:ext cx="18223902" cy="9585022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -286,6 +290,50 @@
         <a:xfrm>
           <a:off x="1320800" y="11887200"/>
           <a:ext cx="18109552" cy="9535856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>288279</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>77487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE0FF67-E519-18CB-8F39-6CFDB782E3A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="22860000"/>
+          <a:ext cx="18119079" cy="9221487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4"/>
+  <dimension ref="C4:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -573,6 +621,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -582,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB6F466-A92A-4475-B5A6-E1FFC7781281}">
-  <dimension ref="C5:C52"/>
+  <dimension ref="C5:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="B90" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -600,6 +653,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
